--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,28 +513,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT04560153</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Interest of Karate Kata Practice on the Self-esteem of Patients Living With HIV</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>KATACHRO</t>
         </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -537,7 +544,10 @@
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -556,28 +566,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT03335345</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Non-inferiority Study of the Pursuit of Enteral Nutrition Compared to a Strategy of Gastric Emptiness Peri-extubation. Cluster Randomized Trial</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>AMBROISIE</t>
         </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -585,7 +597,10 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -604,32 +619,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT03071601</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prospective Evaluation of Topical Analgesia Using a Lidocaine/Prilocaine Cream for Laceration Repair in the Emergency Department</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>

--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -1,37 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+  <si>
+    <t>statut</t>
+  </si>
+  <si>
+    <t>statut_label</t>
+  </si>
+  <si>
+    <t>statut_name</t>
+  </si>
+  <si>
+    <t>NCTId</t>
+  </si>
+  <si>
+    <t>eudraCT</t>
+  </si>
+  <si>
+    <t>CTIS</t>
+  </si>
+  <si>
+    <t>completion_year</t>
+  </si>
+  <si>
+    <t>clinical_trial_title</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>results_1y</t>
+  </si>
+  <si>
+    <t>results_3y</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>intervention_type</t>
+  </si>
+  <si>
+    <t>⬛</t>
+  </si>
+  <si>
+    <t>🟩</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>pas de résultat ni de publication</t>
+  </si>
+  <si>
+    <t>résultat et / ou publication posté dans les 12 mois</t>
+  </si>
+  <si>
+    <t>NCT04560153</t>
+  </si>
+  <si>
+    <t>NCT03335345</t>
+  </si>
+  <si>
+    <t>NCT03071601</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Interest of Karate Kata Practice on the Self-esteem of Patients Living With HIV</t>
+  </si>
+  <si>
+    <t>Non-inferiority Study of the Pursuit of Enteral Nutrition Compared to a Strategy of Gastric Emptiness Peri-extubation. Cluster Randomized Trial</t>
+  </si>
+  <si>
+    <t>Prospective Evaluation of Topical Analgesia Using a Lidocaine/Prilocaine Cream for Laceration Repair in the Emergency Department</t>
+  </si>
+  <si>
+    <t>KATACHRO</t>
+  </si>
+  <si>
+    <t>AMBROISIE</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +147,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,123 +463,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>statut</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>statut_label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>statut_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NCTId</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>eudraCT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CTIS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>completion_year</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>clinical_trial_title</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>acronym</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>results_1y</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>results_3y</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>intervention_type</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>⬛</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>noir</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>pas de résultat ni de publication</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NCT04560153</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Interest of Karate Kata Practice on the Self-esteem of Patients Living With HIV</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>KATACHRO</t>
-        </is>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -547,49 +542,31 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
+      <c r="M2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>🟩</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vert</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>résultat et / ou publication posté dans les 12 mois</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NCT03335345</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Non-inferiority Study of the Pursuit of Enteral Nutrition Compared to a Strategy of Gastric Emptiness Peri-extubation. Cluster Randomized Trial</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>AMBROISIE</t>
-        </is>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -600,46 +577,29 @@
       <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
+      <c r="M3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>🟩</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vert</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>résultat et / ou publication posté dans les 12 mois</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NCT03071601</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Prospective Evaluation of Topical Analgesia Using a Lidocaine/Prilocaine Cream for Laceration Repair in the Emergency Department</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
@@ -649,13 +609,11 @@
       <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>DRUG</t>
-        </is>
+      <c r="M4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -55,13 +55,13 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -55,10 +55,10 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -61,16 +61,16 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT04560153</t>

--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,34 +40,19 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT04560153</t>
@@ -464,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,119 +480,71 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -43,24 +43,24 @@
     <t>intervention_type</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>NCT03335345</t>
   </si>
   <si>
     <t>NCT04560153</t>
   </si>
   <si>
-    <t>NCT03335345</t>
-  </si>
-  <si>
     <t>NCT03071601</t>
   </si>
   <si>
@@ -70,19 +70,19 @@
     <t>2021</t>
   </si>
   <si>
+    <t>Non-inferiority Study of the Pursuit of Enteral Nutrition Compared to a Strategy of Gastric Emptiness Peri-extubation. Cluster Randomized Trial</t>
+  </si>
+  <si>
     <t>Interest of Karate Kata Practice on the Self-esteem of Patients Living With HIV</t>
   </si>
   <si>
-    <t>Non-inferiority Study of the Pursuit of Enteral Nutrition Compared to a Strategy of Gastric Emptiness Peri-extubation. Cluster Randomized Trial</t>
-  </si>
-  <si>
     <t>Prospective Evaluation of Topical Analgesia Using a Lidocaine/Prilocaine Cream for Laceration Repair in the Emergency Department</t>
   </si>
   <si>
+    <t>AMBROISIE</t>
+  </si>
+  <si>
     <t>KATACHRO</t>
-  </si>
-  <si>
-    <t>AMBROISIE</t>
   </si>
   <si>
     <t>OTHER</t>
@@ -529,10 +529,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>

--- a/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
+++ b/publipostage2/03bf2nz41/liste_essais_cliniques_identifies_03bf2nz41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>statut</t>
   </si>
@@ -43,46 +43,58 @@
     <t>intervention_type</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>NCT04560153</t>
   </si>
   <si>
     <t>NCT03335345</t>
   </si>
   <si>
-    <t>NCT04560153</t>
-  </si>
-  <si>
     <t>NCT03071601</t>
   </si>
   <si>
+    <t>NCT05627167</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Interest of Karate Kata Practice on the Self-esteem of Patients Living With HIV</t>
+  </si>
+  <si>
     <t>Non-inferiority Study of the Pursuit of Enteral Nutrition Compared to a Strategy of Gastric Emptiness Peri-extubation. Cluster Randomized Trial</t>
   </si>
   <si>
-    <t>Interest of Karate Kata Practice on the Self-esteem of Patients Living With HIV</t>
-  </si>
-  <si>
     <t>Prospective Evaluation of Topical Analgesia Using a Lidocaine/Prilocaine Cream for Laceration Repair in the Emergency Department</t>
   </si>
   <si>
+    <t>Daytime Cyclic Enteral Nutrition Versus Standard Continuous Enteral Nutrition in the Intensive Care Unit: a Pilot Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>KATACHRO</t>
+  </si>
+  <si>
     <t>AMBROISIE</t>
   </si>
   <si>
-    <t>KATACHRO</t>
+    <t>DC-SCENIC</t>
   </si>
   <si>
     <t>OTHER</t>
@@ -446,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,16 +504,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -515,36 +527,59 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
